--- a/fileserv/SvtBasicInfo.xlsx
+++ b/fileserv/SvtBasicInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a1b2c\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B0E206-716F-4915-B970-77D23582B50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E8A73E-8DFE-447D-B1AE-0F398992E6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{2E2D8D2F-8E67-4418-943A-1DAF8894FA74}"/>
   </bookViews>
@@ -260,7 +260,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,16 +351,34 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11.5"/>
-      <name val="思源黑体"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <name val="FOT-Skip Std D"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <name val="FOT-Skip Std D"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="FOT-Skip Std D"/>
+      <family val="1"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="思源黑体"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <name val="FOT-Skip Std D"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <name val="FOT-Matisse Pro B"/>
+      <family val="1"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1116,14 +1134,263 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1132,12 +1399,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1150,15 +1411,15 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1171,278 +1432,53 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1760,1437 +1796,1472 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FA5E76-591F-4553-9630-3C7433BF1524}">
   <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA11" sqref="AA11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36:S37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="98"/>
+    <col min="1" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="3" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="4"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86"/>
+      <c r="Z1" s="87"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="8"/>
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="88"/>
+      <c r="X2" s="88"/>
+      <c r="Y2" s="88"/>
+      <c r="Z2" s="89"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="91"/>
+      <c r="C3" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="13" t="s">
+      <c r="D3" s="45"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="16" t="s">
+      <c r="L3" s="95"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="17"/>
-      <c r="P3" s="18" t="s">
+      <c r="O3" s="98"/>
+      <c r="P3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="19" t="s">
+      <c r="Q3" s="99"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="99"/>
+      <c r="T3" s="99"/>
+      <c r="U3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20" t="s">
+      <c r="V3" s="4"/>
+      <c r="W3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20" t="s">
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Z3" s="21"/>
+      <c r="Z3" s="5"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24" t="s">
+      <c r="A4" s="92"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="27" t="s">
+      <c r="H4" s="7"/>
+      <c r="I4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="28"/>
-      <c r="K4" s="27" t="s">
+      <c r="J4" s="7"/>
+      <c r="K4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="26"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="32" t="s">
+      <c r="L4" s="37"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="46"/>
+      <c r="Q4" s="105"/>
+      <c r="R4" s="105"/>
+      <c r="S4" s="105"/>
+      <c r="T4" s="105"/>
+      <c r="U4" s="105"/>
+      <c r="V4" s="105"/>
+      <c r="W4" s="105"/>
+      <c r="X4" s="105"/>
+      <c r="Y4" s="105"/>
+      <c r="Z4" s="106"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="24" t="s">
+      <c r="A5" s="92"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="27" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="26"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="46"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="105"/>
+      <c r="R5" s="105"/>
+      <c r="S5" s="105"/>
+      <c r="T5" s="105"/>
+      <c r="U5" s="105"/>
+      <c r="V5" s="105"/>
+      <c r="W5" s="105"/>
+      <c r="X5" s="105"/>
+      <c r="Y5" s="105"/>
+      <c r="Z5" s="106"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24" t="s">
+      <c r="A6" s="92"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="27" t="s">
+      <c r="D6" s="21"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="26"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="45"/>
-      <c r="X6" s="45"/>
-      <c r="Y6" s="45"/>
-      <c r="Z6" s="46"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="105"/>
+      <c r="R6" s="105"/>
+      <c r="S6" s="105"/>
+      <c r="T6" s="105"/>
+      <c r="U6" s="105"/>
+      <c r="V6" s="105"/>
+      <c r="W6" s="105"/>
+      <c r="X6" s="105"/>
+      <c r="Y6" s="105"/>
+      <c r="Z6" s="106"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="33" t="s">
+      <c r="A7" s="92"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="34" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="36" t="s">
+      <c r="H7" s="52"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="37"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="45"/>
-      <c r="W7" s="45"/>
-      <c r="X7" s="45"/>
-      <c r="Y7" s="45"/>
-      <c r="Z7" s="46"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="105"/>
+      <c r="R7" s="105"/>
+      <c r="S7" s="105"/>
+      <c r="T7" s="105"/>
+      <c r="U7" s="105"/>
+      <c r="V7" s="105"/>
+      <c r="W7" s="105"/>
+      <c r="X7" s="105"/>
+      <c r="Y7" s="105"/>
+      <c r="Z7" s="106"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="41" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="12" t="s">
+      <c r="D8" s="45"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="32" t="s">
+      <c r="H8" s="45"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="45"/>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="45"/>
-      <c r="Z8" s="46"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="26"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="47" t="s">
+      <c r="A9" s="42"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="34" t="s">
+      <c r="D9" s="52"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="45"/>
-      <c r="X9" s="45"/>
-      <c r="Y9" s="45"/>
-      <c r="Z9" s="46"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="26"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
-      <c r="W10" s="45"/>
-      <c r="X10" s="45"/>
-      <c r="Y10" s="45"/>
-      <c r="Z10" s="46"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="26"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="41" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
-      <c r="W11" s="45"/>
-      <c r="X11" s="45"/>
-      <c r="Y11" s="45"/>
-      <c r="Z11" s="46"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="26"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="32" t="s">
+      <c r="A12" s="42"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="45"/>
-      <c r="Z12" s="46"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="26"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="57"/>
-      <c r="V13" s="57"/>
-      <c r="W13" s="57"/>
-      <c r="X13" s="57"/>
-      <c r="Y13" s="57"/>
-      <c r="Z13" s="58"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="28"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="32" t="s">
+      <c r="A14" s="42"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="30" t="s">
+      <c r="D14" s="21"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="O14" s="31"/>
-      <c r="P14" s="18" t="s">
+      <c r="O14" s="30"/>
+      <c r="P14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="42"/>
-      <c r="U14" s="19" t="s">
+      <c r="Q14" s="99"/>
+      <c r="R14" s="99"/>
+      <c r="S14" s="99"/>
+      <c r="T14" s="99"/>
+      <c r="U14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20" t="s">
+      <c r="V14" s="4"/>
+      <c r="W14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="20" t="s">
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="21"/>
+      <c r="Z14" s="5"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="32" t="s">
+      <c r="A15" s="42"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="45"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="45"/>
-      <c r="W15" s="45"/>
-      <c r="X15" s="45"/>
-      <c r="Y15" s="45"/>
-      <c r="Z15" s="46"/>
+      <c r="Q15" s="105"/>
+      <c r="R15" s="105"/>
+      <c r="S15" s="105"/>
+      <c r="T15" s="105"/>
+      <c r="U15" s="105"/>
+      <c r="V15" s="105"/>
+      <c r="W15" s="105"/>
+      <c r="X15" s="105"/>
+      <c r="Y15" s="105"/>
+      <c r="Z15" s="106"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="59" t="s">
+      <c r="A16" s="42"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="45"/>
-      <c r="W16" s="45"/>
-      <c r="X16" s="45"/>
-      <c r="Y16" s="45"/>
-      <c r="Z16" s="46"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="105"/>
+      <c r="R16" s="105"/>
+      <c r="S16" s="105"/>
+      <c r="T16" s="105"/>
+      <c r="U16" s="105"/>
+      <c r="V16" s="105"/>
+      <c r="W16" s="105"/>
+      <c r="X16" s="105"/>
+      <c r="Y16" s="105"/>
+      <c r="Z16" s="106"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="45"/>
-      <c r="T17" s="45"/>
-      <c r="U17" s="45"/>
-      <c r="V17" s="45"/>
-      <c r="W17" s="45"/>
-      <c r="X17" s="45"/>
-      <c r="Y17" s="45"/>
-      <c r="Z17" s="46"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="105"/>
+      <c r="R17" s="105"/>
+      <c r="S17" s="105"/>
+      <c r="T17" s="105"/>
+      <c r="U17" s="105"/>
+      <c r="V17" s="105"/>
+      <c r="W17" s="105"/>
+      <c r="X17" s="105"/>
+      <c r="Y17" s="105"/>
+      <c r="Z17" s="106"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="67" t="s">
+      <c r="A18" s="42"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68" t="s">
+      <c r="D18" s="64"/>
+      <c r="E18" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="45"/>
-      <c r="U18" s="45"/>
-      <c r="V18" s="45"/>
-      <c r="W18" s="45"/>
-      <c r="X18" s="45"/>
-      <c r="Y18" s="45"/>
-      <c r="Z18" s="46"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="105"/>
+      <c r="R18" s="105"/>
+      <c r="S18" s="105"/>
+      <c r="T18" s="105"/>
+      <c r="U18" s="105"/>
+      <c r="V18" s="105"/>
+      <c r="W18" s="105"/>
+      <c r="X18" s="105"/>
+      <c r="Y18" s="105"/>
+      <c r="Z18" s="106"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="70" t="s">
+      <c r="A19" s="42"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="71"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="32" t="s">
+      <c r="D19" s="67"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="45"/>
-      <c r="T19" s="45"/>
-      <c r="U19" s="45"/>
-      <c r="V19" s="45"/>
-      <c r="W19" s="45"/>
-      <c r="X19" s="45"/>
-      <c r="Y19" s="45"/>
-      <c r="Z19" s="46"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="26"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="74" t="s">
+      <c r="A20" s="42"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="75"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="45"/>
-      <c r="W20" s="45"/>
-      <c r="X20" s="45"/>
-      <c r="Y20" s="45"/>
-      <c r="Z20" s="46"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="26"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="76" t="s">
+      <c r="A21" s="42"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="77"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="45"/>
-      <c r="V21" s="45"/>
-      <c r="W21" s="45"/>
-      <c r="X21" s="45"/>
-      <c r="Y21" s="45"/>
-      <c r="Z21" s="46"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="26"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="32" t="s">
+      <c r="A22" s="42"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="45"/>
-      <c r="W22" s="45"/>
-      <c r="X22" s="45"/>
-      <c r="Y22" s="45"/>
-      <c r="Z22" s="46"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="26"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="47" t="s">
+      <c r="A23" s="42"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="45"/>
-      <c r="U23" s="45"/>
-      <c r="V23" s="45"/>
-      <c r="W23" s="45"/>
-      <c r="X23" s="45"/>
-      <c r="Y23" s="45"/>
-      <c r="Z23" s="46"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="26"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="50" t="s">
+      <c r="A24" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="51"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="47"/>
-      <c r="Q24" s="57"/>
-      <c r="R24" s="57"/>
-      <c r="S24" s="57"/>
-      <c r="T24" s="57"/>
-      <c r="U24" s="57"/>
-      <c r="V24" s="57"/>
-      <c r="W24" s="57"/>
-      <c r="X24" s="57"/>
-      <c r="Y24" s="57"/>
-      <c r="Z24" s="58"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
+      <c r="K24" s="101"/>
+      <c r="L24" s="101"/>
+      <c r="M24" s="101"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="28"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="100"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="100"/>
-      <c r="F25" s="100"/>
-      <c r="G25" s="100"/>
-      <c r="H25" s="100"/>
-      <c r="I25" s="100"/>
-      <c r="J25" s="100"/>
-      <c r="K25" s="100"/>
-      <c r="L25" s="100"/>
-      <c r="M25" s="100"/>
-      <c r="N25" s="30" t="s">
+      <c r="A25" s="39"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="102"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="102"/>
+      <c r="N25" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="O25" s="31"/>
-      <c r="P25" s="18" t="s">
+      <c r="O25" s="30"/>
+      <c r="P25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="42"/>
-      <c r="T25" s="42"/>
-      <c r="U25" s="19" t="s">
+      <c r="Q25" s="99"/>
+      <c r="R25" s="99"/>
+      <c r="S25" s="99"/>
+      <c r="T25" s="99"/>
+      <c r="U25" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="V25" s="20"/>
-      <c r="W25" s="20" t="s">
+      <c r="V25" s="4"/>
+      <c r="W25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="X25" s="20"/>
-      <c r="Y25" s="20" t="s">
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Z25" s="21"/>
+      <c r="Z25" s="5"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="41" t="s">
+      <c r="B26" s="11"/>
+      <c r="C26" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="12" t="s">
+      <c r="D26" s="45"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="32" t="s">
+      <c r="H26" s="45"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="45"/>
-      <c r="U26" s="45"/>
-      <c r="V26" s="45"/>
-      <c r="W26" s="45"/>
-      <c r="X26" s="45"/>
-      <c r="Y26" s="45"/>
-      <c r="Z26" s="46"/>
+      <c r="Q26" s="105"/>
+      <c r="R26" s="105"/>
+      <c r="S26" s="105"/>
+      <c r="T26" s="105"/>
+      <c r="U26" s="105"/>
+      <c r="V26" s="105"/>
+      <c r="W26" s="105"/>
+      <c r="X26" s="105"/>
+      <c r="Y26" s="105"/>
+      <c r="Z26" s="106"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="32" t="s">
+      <c r="A27" s="42"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="45"/>
-      <c r="S27" s="45"/>
-      <c r="T27" s="45"/>
-      <c r="U27" s="45"/>
-      <c r="V27" s="45"/>
-      <c r="W27" s="45"/>
-      <c r="X27" s="45"/>
-      <c r="Y27" s="45"/>
-      <c r="Z27" s="46"/>
-    </row>
-    <row r="28" spans="1:26" ht="19.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="32" t="s">
+      <c r="D27" s="21"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="105"/>
+      <c r="R27" s="105"/>
+      <c r="S27" s="105"/>
+      <c r="T27" s="105"/>
+      <c r="U27" s="105"/>
+      <c r="V27" s="105"/>
+      <c r="W27" s="105"/>
+      <c r="X27" s="105"/>
+      <c r="Y27" s="105"/>
+      <c r="Z27" s="106"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" s="42"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="101"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="101"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="101"/>
-      <c r="J28" s="101"/>
-      <c r="K28" s="101"/>
-      <c r="L28" s="101"/>
-      <c r="M28" s="102"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="45"/>
-      <c r="W28" s="45"/>
-      <c r="X28" s="45"/>
-      <c r="Y28" s="45"/>
-      <c r="Z28" s="46"/>
-    </row>
-    <row r="29" spans="1:26" ht="19.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="101"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="101"/>
-      <c r="J29" s="101"/>
-      <c r="K29" s="101"/>
-      <c r="L29" s="101"/>
-      <c r="M29" s="102"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="45"/>
-      <c r="S29" s="45"/>
-      <c r="T29" s="45"/>
-      <c r="U29" s="45"/>
-      <c r="V29" s="45"/>
-      <c r="W29" s="45"/>
-      <c r="X29" s="45"/>
-      <c r="Y29" s="45"/>
-      <c r="Z29" s="46"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="113"/>
+      <c r="H28" s="113"/>
+      <c r="I28" s="113"/>
+      <c r="J28" s="113"/>
+      <c r="K28" s="113"/>
+      <c r="L28" s="113"/>
+      <c r="M28" s="114"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="105"/>
+      <c r="R28" s="105"/>
+      <c r="S28" s="105"/>
+      <c r="T28" s="105"/>
+      <c r="U28" s="105"/>
+      <c r="V28" s="105"/>
+      <c r="W28" s="105"/>
+      <c r="X28" s="105"/>
+      <c r="Y28" s="105"/>
+      <c r="Z28" s="106"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" s="42"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="113"/>
+      <c r="G29" s="113"/>
+      <c r="H29" s="113"/>
+      <c r="I29" s="113"/>
+      <c r="J29" s="113"/>
+      <c r="K29" s="113"/>
+      <c r="L29" s="113"/>
+      <c r="M29" s="114"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="105"/>
+      <c r="R29" s="105"/>
+      <c r="S29" s="105"/>
+      <c r="T29" s="105"/>
+      <c r="U29" s="105"/>
+      <c r="V29" s="105"/>
+      <c r="W29" s="105"/>
+      <c r="X29" s="105"/>
+      <c r="Y29" s="105"/>
+      <c r="Z29" s="106"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="32" t="s">
+      <c r="A30" s="42"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="84"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="32" t="s">
+      <c r="D30" s="21"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="103"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="103"/>
+      <c r="J30" s="103"/>
+      <c r="K30" s="103"/>
+      <c r="L30" s="103"/>
+      <c r="M30" s="104"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="45"/>
-      <c r="S30" s="45"/>
-      <c r="T30" s="45"/>
-      <c r="U30" s="45"/>
-      <c r="V30" s="45"/>
-      <c r="W30" s="45"/>
-      <c r="X30" s="45"/>
-      <c r="Y30" s="45"/>
-      <c r="Z30" s="46"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="25"/>
+      <c r="X30" s="25"/>
+      <c r="Y30" s="25"/>
+      <c r="Z30" s="26"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="83"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="83"/>
-      <c r="K31" s="83"/>
-      <c r="L31" s="83"/>
-      <c r="M31" s="84"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="45"/>
-      <c r="S31" s="45"/>
-      <c r="T31" s="45"/>
-      <c r="U31" s="45"/>
-      <c r="V31" s="45"/>
-      <c r="W31" s="45"/>
-      <c r="X31" s="45"/>
-      <c r="Y31" s="45"/>
-      <c r="Z31" s="46"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="103"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="103"/>
+      <c r="K31" s="103"/>
+      <c r="L31" s="103"/>
+      <c r="M31" s="104"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="25"/>
+      <c r="V31" s="25"/>
+      <c r="W31" s="25"/>
+      <c r="X31" s="25"/>
+      <c r="Y31" s="25"/>
+      <c r="Z31" s="26"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="83"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="83"/>
-      <c r="L32" s="83"/>
-      <c r="M32" s="84"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="45"/>
-      <c r="R32" s="45"/>
-      <c r="S32" s="45"/>
-      <c r="T32" s="45"/>
-      <c r="U32" s="45"/>
-      <c r="V32" s="45"/>
-      <c r="W32" s="45"/>
-      <c r="X32" s="45"/>
-      <c r="Y32" s="45"/>
-      <c r="Z32" s="46"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="103"/>
+      <c r="J32" s="103"/>
+      <c r="K32" s="103"/>
+      <c r="L32" s="103"/>
+      <c r="M32" s="104"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
+      <c r="U32" s="25"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="25"/>
+      <c r="X32" s="25"/>
+      <c r="Y32" s="25"/>
+      <c r="Z32" s="26"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="83"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="83"/>
-      <c r="I33" s="83"/>
-      <c r="J33" s="83"/>
-      <c r="K33" s="83"/>
-      <c r="L33" s="83"/>
-      <c r="M33" s="84"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="45"/>
-      <c r="S33" s="45"/>
-      <c r="T33" s="45"/>
-      <c r="U33" s="45"/>
-      <c r="V33" s="45"/>
-      <c r="W33" s="45"/>
-      <c r="X33" s="45"/>
-      <c r="Y33" s="45"/>
-      <c r="Z33" s="46"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="103"/>
+      <c r="J33" s="103"/>
+      <c r="K33" s="103"/>
+      <c r="L33" s="103"/>
+      <c r="M33" s="104"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
+      <c r="U33" s="25"/>
+      <c r="V33" s="25"/>
+      <c r="W33" s="25"/>
+      <c r="X33" s="25"/>
+      <c r="Y33" s="25"/>
+      <c r="Z33" s="26"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="83"/>
-      <c r="J34" s="83"/>
-      <c r="K34" s="83"/>
-      <c r="L34" s="83"/>
-      <c r="M34" s="84"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="45"/>
-      <c r="R34" s="45"/>
-      <c r="S34" s="45"/>
-      <c r="T34" s="45"/>
-      <c r="U34" s="45"/>
-      <c r="V34" s="45"/>
-      <c r="W34" s="45"/>
-      <c r="X34" s="45"/>
-      <c r="Y34" s="45"/>
-      <c r="Z34" s="46"/>
+      <c r="A34" s="42"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="103"/>
+      <c r="J34" s="103"/>
+      <c r="K34" s="103"/>
+      <c r="L34" s="103"/>
+      <c r="M34" s="104"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
+      <c r="T34" s="25"/>
+      <c r="U34" s="25"/>
+      <c r="V34" s="25"/>
+      <c r="W34" s="25"/>
+      <c r="X34" s="25"/>
+      <c r="Y34" s="25"/>
+      <c r="Z34" s="26"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="83"/>
-      <c r="I35" s="83"/>
-      <c r="J35" s="83"/>
-      <c r="K35" s="83"/>
-      <c r="L35" s="83"/>
-      <c r="M35" s="84"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="47"/>
-      <c r="Q35" s="57"/>
-      <c r="R35" s="57"/>
-      <c r="S35" s="57"/>
-      <c r="T35" s="57"/>
-      <c r="U35" s="57"/>
-      <c r="V35" s="57"/>
-      <c r="W35" s="57"/>
-      <c r="X35" s="57"/>
-      <c r="Y35" s="57"/>
-      <c r="Z35" s="58"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="103"/>
+      <c r="I35" s="103"/>
+      <c r="J35" s="103"/>
+      <c r="K35" s="103"/>
+      <c r="L35" s="103"/>
+      <c r="M35" s="104"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="27"/>
+      <c r="U35" s="27"/>
+      <c r="V35" s="27"/>
+      <c r="W35" s="27"/>
+      <c r="X35" s="27"/>
+      <c r="Y35" s="27"/>
+      <c r="Z35" s="28"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="83"/>
-      <c r="F36" s="83"/>
-      <c r="G36" s="83"/>
-      <c r="H36" s="83"/>
-      <c r="I36" s="83"/>
-      <c r="J36" s="83"/>
-      <c r="K36" s="83"/>
-      <c r="L36" s="83"/>
-      <c r="M36" s="84"/>
-      <c r="N36" s="30" t="s">
+      <c r="A36" s="42"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="103"/>
+      <c r="I36" s="103"/>
+      <c r="J36" s="103"/>
+      <c r="K36" s="103"/>
+      <c r="L36" s="103"/>
+      <c r="M36" s="104"/>
+      <c r="N36" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="O36" s="31"/>
-      <c r="P36" s="80" t="s">
+      <c r="O36" s="30"/>
+      <c r="P36" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="Q36" s="103"/>
-      <c r="R36" s="103"/>
-      <c r="S36" s="103"/>
-      <c r="T36" s="103"/>
-      <c r="U36" s="103"/>
-      <c r="V36" s="103"/>
-      <c r="W36" s="103"/>
-      <c r="X36" s="103"/>
-      <c r="Y36" s="103"/>
-      <c r="Z36" s="104"/>
+      <c r="Q36" s="107"/>
+      <c r="R36" s="107"/>
+      <c r="S36" s="107"/>
+      <c r="T36" s="107"/>
+      <c r="U36" s="107"/>
+      <c r="V36" s="107"/>
+      <c r="W36" s="107"/>
+      <c r="X36" s="107"/>
+      <c r="Y36" s="107"/>
+      <c r="Z36" s="110"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="81" t="s">
+      <c r="A37" s="42"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="82"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="83"/>
-      <c r="H37" s="83"/>
-      <c r="I37" s="83"/>
-      <c r="J37" s="83"/>
-      <c r="K37" s="83"/>
-      <c r="L37" s="83"/>
-      <c r="M37" s="84"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="81"/>
-      <c r="Q37" s="105"/>
-      <c r="R37" s="105"/>
-      <c r="S37" s="105"/>
-      <c r="T37" s="105"/>
-      <c r="U37" s="105"/>
-      <c r="V37" s="105"/>
-      <c r="W37" s="105"/>
-      <c r="X37" s="105"/>
-      <c r="Y37" s="105"/>
-      <c r="Z37" s="106"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="108"/>
+      <c r="R37" s="108"/>
+      <c r="S37" s="108"/>
+      <c r="T37" s="108"/>
+      <c r="U37" s="108"/>
+      <c r="V37" s="108"/>
+      <c r="W37" s="108"/>
+      <c r="X37" s="108"/>
+      <c r="Y37" s="108"/>
+      <c r="Z37" s="111"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="83"/>
-      <c r="I38" s="83"/>
-      <c r="J38" s="83"/>
-      <c r="K38" s="83"/>
-      <c r="L38" s="83"/>
-      <c r="M38" s="84"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="81" t="s">
+      <c r="A38" s="42"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="Q38" s="105"/>
-      <c r="R38" s="105"/>
-      <c r="S38" s="105"/>
-      <c r="T38" s="105"/>
-      <c r="U38" s="105"/>
-      <c r="V38" s="105"/>
-      <c r="W38" s="105"/>
-      <c r="X38" s="105"/>
-      <c r="Y38" s="105"/>
-      <c r="Z38" s="106"/>
+      <c r="Q38" s="108"/>
+      <c r="R38" s="108"/>
+      <c r="S38" s="108"/>
+      <c r="T38" s="108"/>
+      <c r="U38" s="108"/>
+      <c r="V38" s="108"/>
+      <c r="W38" s="108"/>
+      <c r="X38" s="108"/>
+      <c r="Y38" s="108"/>
+      <c r="Z38" s="111"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="83"/>
-      <c r="F39" s="83"/>
-      <c r="G39" s="83"/>
-      <c r="H39" s="83"/>
-      <c r="I39" s="83"/>
-      <c r="J39" s="83"/>
-      <c r="K39" s="83"/>
-      <c r="L39" s="83"/>
-      <c r="M39" s="84"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="31"/>
-      <c r="P39" s="81"/>
-      <c r="Q39" s="105"/>
-      <c r="R39" s="105"/>
-      <c r="S39" s="105"/>
-      <c r="T39" s="105"/>
-      <c r="U39" s="105"/>
-      <c r="V39" s="105"/>
-      <c r="W39" s="105"/>
-      <c r="X39" s="105"/>
-      <c r="Y39" s="105"/>
-      <c r="Z39" s="106"/>
+      <c r="A39" s="42"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="108"/>
+      <c r="R39" s="108"/>
+      <c r="S39" s="108"/>
+      <c r="T39" s="108"/>
+      <c r="U39" s="108"/>
+      <c r="V39" s="108"/>
+      <c r="W39" s="108"/>
+      <c r="X39" s="108"/>
+      <c r="Y39" s="108"/>
+      <c r="Z39" s="111"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="39"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="83"/>
-      <c r="H40" s="83"/>
-      <c r="I40" s="83"/>
-      <c r="J40" s="83"/>
-      <c r="K40" s="83"/>
-      <c r="L40" s="83"/>
-      <c r="M40" s="84"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="31"/>
-      <c r="P40" s="81" t="s">
+      <c r="A40" s="42"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="30"/>
+      <c r="P40" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="Q40" s="105"/>
-      <c r="R40" s="105"/>
-      <c r="S40" s="105"/>
-      <c r="T40" s="105"/>
-      <c r="U40" s="105"/>
-      <c r="V40" s="105"/>
-      <c r="W40" s="105"/>
-      <c r="X40" s="105"/>
-      <c r="Y40" s="105"/>
-      <c r="Z40" s="106"/>
+      <c r="Q40" s="108"/>
+      <c r="R40" s="108"/>
+      <c r="S40" s="108"/>
+      <c r="T40" s="108"/>
+      <c r="U40" s="108"/>
+      <c r="V40" s="108"/>
+      <c r="W40" s="108"/>
+      <c r="X40" s="108"/>
+      <c r="Y40" s="108"/>
+      <c r="Z40" s="111"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="82"/>
-      <c r="E41" s="83"/>
-      <c r="F41" s="83"/>
-      <c r="G41" s="83"/>
-      <c r="H41" s="83"/>
-      <c r="I41" s="83"/>
-      <c r="J41" s="83"/>
-      <c r="K41" s="83"/>
-      <c r="L41" s="83"/>
-      <c r="M41" s="84"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="31"/>
-      <c r="P41" s="85"/>
-      <c r="Q41" s="107"/>
-      <c r="R41" s="107"/>
-      <c r="S41" s="107"/>
-      <c r="T41" s="107"/>
-      <c r="U41" s="107"/>
-      <c r="V41" s="107"/>
-      <c r="W41" s="107"/>
-      <c r="X41" s="107"/>
-      <c r="Y41" s="107"/>
-      <c r="Z41" s="108"/>
+      <c r="A41" s="42"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="109"/>
+      <c r="R41" s="109"/>
+      <c r="S41" s="109"/>
+      <c r="T41" s="109"/>
+      <c r="U41" s="109"/>
+      <c r="V41" s="109"/>
+      <c r="W41" s="109"/>
+      <c r="X41" s="109"/>
+      <c r="Y41" s="109"/>
+      <c r="Z41" s="112"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="81"/>
-      <c r="D42" s="82"/>
-      <c r="E42" s="83"/>
-      <c r="F42" s="83"/>
-      <c r="G42" s="83"/>
-      <c r="H42" s="83"/>
-      <c r="I42" s="83"/>
-      <c r="J42" s="83"/>
-      <c r="K42" s="83"/>
-      <c r="L42" s="83"/>
-      <c r="M42" s="84"/>
-      <c r="N42" s="86" t="s">
+      <c r="A42" s="42"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="O42" s="40"/>
-      <c r="P42" s="87"/>
-      <c r="Q42" s="87"/>
-      <c r="R42" s="87"/>
-      <c r="S42" s="87"/>
-      <c r="T42" s="87"/>
-      <c r="U42" s="87"/>
-      <c r="V42" s="87"/>
-      <c r="W42" s="87"/>
-      <c r="X42" s="87"/>
-      <c r="Y42" s="87"/>
-      <c r="Z42" s="88"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="14"/>
+      <c r="W42" s="14"/>
+      <c r="X42" s="14"/>
+      <c r="Y42" s="14"/>
+      <c r="Z42" s="15"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A43" s="39"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="83"/>
-      <c r="G43" s="83"/>
-      <c r="H43" s="83"/>
-      <c r="I43" s="83"/>
-      <c r="J43" s="83"/>
-      <c r="K43" s="83"/>
-      <c r="L43" s="83"/>
-      <c r="M43" s="84"/>
-      <c r="N43" s="86"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="87"/>
-      <c r="Q43" s="87"/>
-      <c r="R43" s="87"/>
-      <c r="S43" s="87"/>
-      <c r="T43" s="87"/>
-      <c r="U43" s="87"/>
-      <c r="V43" s="87"/>
-      <c r="W43" s="87"/>
-      <c r="X43" s="87"/>
-      <c r="Y43" s="87"/>
-      <c r="Z43" s="88"/>
+      <c r="A43" s="42"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="14"/>
+      <c r="W43" s="14"/>
+      <c r="X43" s="14"/>
+      <c r="Y43" s="14"/>
+      <c r="Z43" s="15"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A44" s="39"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="81"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="83"/>
-      <c r="F44" s="83"/>
-      <c r="G44" s="83"/>
-      <c r="H44" s="83"/>
-      <c r="I44" s="83"/>
-      <c r="J44" s="83"/>
-      <c r="K44" s="83"/>
-      <c r="L44" s="83"/>
-      <c r="M44" s="84"/>
-      <c r="N44" s="86"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="87"/>
-      <c r="Q44" s="87"/>
-      <c r="R44" s="87"/>
-      <c r="S44" s="87"/>
-      <c r="T44" s="87"/>
-      <c r="U44" s="87"/>
-      <c r="V44" s="87"/>
-      <c r="W44" s="87"/>
-      <c r="X44" s="87"/>
-      <c r="Y44" s="87"/>
-      <c r="Z44" s="88"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="23"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="14"/>
+      <c r="V44" s="14"/>
+      <c r="W44" s="14"/>
+      <c r="X44" s="14"/>
+      <c r="Y44" s="14"/>
+      <c r="Z44" s="15"/>
     </row>
     <row r="45" spans="1:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="89"/>
-      <c r="B45" s="90"/>
-      <c r="C45" s="91"/>
-      <c r="D45" s="92"/>
-      <c r="E45" s="93"/>
-      <c r="F45" s="93"/>
-      <c r="G45" s="93"/>
-      <c r="H45" s="93"/>
-      <c r="I45" s="93"/>
-      <c r="J45" s="93"/>
-      <c r="K45" s="93"/>
-      <c r="L45" s="93"/>
-      <c r="M45" s="94"/>
-      <c r="N45" s="95"/>
-      <c r="O45" s="90"/>
-      <c r="P45" s="96"/>
-      <c r="Q45" s="96"/>
-      <c r="R45" s="96"/>
-      <c r="S45" s="96"/>
-      <c r="T45" s="96"/>
-      <c r="U45" s="96"/>
-      <c r="V45" s="96"/>
-      <c r="W45" s="96"/>
-      <c r="X45" s="96"/>
-      <c r="Y45" s="96"/>
-      <c r="Z45" s="97"/>
+      <c r="A45" s="43"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="16"/>
+      <c r="R45" s="16"/>
+      <c r="S45" s="16"/>
+      <c r="T45" s="16"/>
+      <c r="U45" s="16"/>
+      <c r="V45" s="16"/>
+      <c r="W45" s="16"/>
+      <c r="X45" s="16"/>
+      <c r="Y45" s="16"/>
+      <c r="Z45" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="N42:O45"/>
-    <mergeCell ref="P42:Z45"/>
-    <mergeCell ref="P38:P39"/>
-    <mergeCell ref="Q38:S39"/>
-    <mergeCell ref="T38:Z39"/>
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="Q40:S41"/>
-    <mergeCell ref="T40:Z41"/>
-    <mergeCell ref="C30:D36"/>
-    <mergeCell ref="E30:M36"/>
-    <mergeCell ref="P30:P35"/>
-    <mergeCell ref="Q30:Z35"/>
-    <mergeCell ref="N36:O41"/>
-    <mergeCell ref="P36:P37"/>
-    <mergeCell ref="Q36:S37"/>
-    <mergeCell ref="T36:Z37"/>
-    <mergeCell ref="C37:D45"/>
-    <mergeCell ref="E37:M45"/>
-    <mergeCell ref="Q26:Z29"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:M27"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:M28"/>
-    <mergeCell ref="E29:M29"/>
+    <mergeCell ref="A1:P2"/>
+    <mergeCell ref="Q1:Z2"/>
+    <mergeCell ref="A3:B7"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O13"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="P4:P7"/>
+    <mergeCell ref="Q4:Z7"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:M9"/>
+    <mergeCell ref="P8:P13"/>
+    <mergeCell ref="Q8:Z13"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:M10"/>
+    <mergeCell ref="A11:B23"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:M11"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:M13"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:M15"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="P15:P18"/>
+    <mergeCell ref="Q15:Z18"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:M17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:M18"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:M22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:M23"/>
+    <mergeCell ref="N14:O24"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:M19"/>
     <mergeCell ref="A24:B25"/>
     <mergeCell ref="C24:M25"/>
     <mergeCell ref="N25:O35"/>
@@ -3207,67 +3278,33 @@
     <mergeCell ref="E20:M20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:M21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:M22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:M23"/>
-    <mergeCell ref="N14:O24"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="P15:P18"/>
-    <mergeCell ref="Q15:Z18"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:M17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:M18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:M19"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:M10"/>
-    <mergeCell ref="A11:B23"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:M11"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:M13"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:M15"/>
-    <mergeCell ref="P8:P13"/>
-    <mergeCell ref="Q8:Z13"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:M9"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="P4:P7"/>
-    <mergeCell ref="Q4:Z7"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A1:P2"/>
-    <mergeCell ref="Q1:Z2"/>
-    <mergeCell ref="A3:B7"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:J3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O13"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="Q26:Z29"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:M27"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:M28"/>
+    <mergeCell ref="E29:M29"/>
+    <mergeCell ref="C30:D36"/>
+    <mergeCell ref="E30:M36"/>
+    <mergeCell ref="P30:P35"/>
+    <mergeCell ref="Q30:Z35"/>
+    <mergeCell ref="N36:O41"/>
+    <mergeCell ref="P36:P37"/>
+    <mergeCell ref="Q36:S37"/>
+    <mergeCell ref="T36:Z37"/>
+    <mergeCell ref="C37:D45"/>
+    <mergeCell ref="E37:M45"/>
+    <mergeCell ref="N42:O45"/>
+    <mergeCell ref="P42:Z45"/>
+    <mergeCell ref="P38:P39"/>
+    <mergeCell ref="Q38:S39"/>
+    <mergeCell ref="T38:Z39"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="Q40:S41"/>
+    <mergeCell ref="T40:Z41"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/fileserv/SvtBasicInfo.xlsx
+++ b/fileserv/SvtBasicInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a1b2c\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E8A73E-8DFE-447D-B1AE-0F398992E6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62F614A-EF7F-4D42-8887-52F850DA0C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{2E2D8D2F-8E67-4418-943A-1DAF8894FA74}"/>
   </bookViews>
@@ -376,7 +376,7 @@
     </font>
     <font>
       <sz val="11.5"/>
-      <name val="FOT-Matisse Pro B"/>
+      <name val="FOT-Matisse Pro DB"/>
       <family val="1"/>
       <charset val="128"/>
     </font>
@@ -1165,222 +1165,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1420,6 +1204,12 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1432,28 +1222,196 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1462,13 +1420,55 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1796,8 +1796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FA5E76-591F-4553-9630-3C7433BF1524}">
   <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="Q36" sqref="Q36:S37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28:M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1806,96 +1806,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="86" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86"/>
-      <c r="Z1" s="87"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="15"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="88"/>
-      <c r="V2" s="88"/>
-      <c r="W2" s="88"/>
-      <c r="X2" s="88"/>
-      <c r="Y2" s="88"/>
-      <c r="Z2" s="89"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="17"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="94" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
       <c r="K3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="95"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="97" t="s">
+      <c r="L3" s="25"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="98"/>
+      <c r="O3" s="28"/>
       <c r="P3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="99"/>
-      <c r="R3" s="99"/>
-      <c r="S3" s="99"/>
-      <c r="T3" s="99"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
       <c r="U3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1910,14 +1910,14 @@
       <c r="Z3" s="5"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="92"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="80" t="s">
+      <c r="A4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
       <c r="G4" s="6" t="s">
         <v>10</v>
       </c>
@@ -1929,326 +1929,326 @@
       <c r="K4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="37"/>
-      <c r="M4" s="38"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="34"/>
       <c r="N4" s="29"/>
       <c r="O4" s="30"/>
-      <c r="P4" s="20" t="s">
+      <c r="P4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
-      <c r="U4" s="105"/>
-      <c r="V4" s="105"/>
-      <c r="W4" s="105"/>
-      <c r="X4" s="105"/>
-      <c r="Y4" s="105"/>
-      <c r="Z4" s="106"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="37"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
-      <c r="B5" s="93"/>
-      <c r="C5" s="80" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
       <c r="K5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="37"/>
-      <c r="M5" s="38"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="34"/>
       <c r="N5" s="29"/>
       <c r="O5" s="30"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="105"/>
-      <c r="T5" s="105"/>
-      <c r="U5" s="105"/>
-      <c r="V5" s="105"/>
-      <c r="W5" s="105"/>
-      <c r="X5" s="105"/>
-      <c r="Y5" s="105"/>
-      <c r="Z5" s="106"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="37"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="92"/>
-      <c r="B6" s="93"/>
-      <c r="C6" s="80" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
       <c r="K6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="37"/>
-      <c r="M6" s="38"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="34"/>
       <c r="N6" s="29"/>
       <c r="O6" s="30"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="105"/>
-      <c r="R6" s="105"/>
-      <c r="S6" s="105"/>
-      <c r="T6" s="105"/>
-      <c r="U6" s="105"/>
-      <c r="V6" s="105"/>
-      <c r="W6" s="105"/>
-      <c r="X6" s="105"/>
-      <c r="Y6" s="105"/>
-      <c r="Z6" s="106"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="37"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="92"/>
-      <c r="B7" s="93"/>
-      <c r="C7" s="81" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="40"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
       <c r="K7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="53"/>
-      <c r="M7" s="54"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="43"/>
       <c r="N7" s="29"/>
       <c r="O7" s="30"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="105"/>
-      <c r="R7" s="105"/>
-      <c r="S7" s="105"/>
-      <c r="T7" s="105"/>
-      <c r="U7" s="105"/>
-      <c r="V7" s="105"/>
-      <c r="W7" s="105"/>
-      <c r="X7" s="105"/>
-      <c r="Y7" s="105"/>
-      <c r="Z7" s="106"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="37"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="44" t="s">
+      <c r="B8" s="45"/>
+      <c r="C8" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="45" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="45"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="77"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="49"/>
       <c r="N8" s="29"/>
       <c r="O8" s="30"/>
-      <c r="P8" s="20" t="s">
+      <c r="P8" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="25"/>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="26"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="54"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="24" t="s">
+      <c r="A9" s="44"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="52" t="s">
+      <c r="D9" s="40"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="52"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="79"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="51"/>
       <c r="N9" s="29"/>
       <c r="O9" s="30"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="26"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="54"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
       <c r="N10" s="29"/>
       <c r="O10" s="30"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="25"/>
-      <c r="X10" s="25"/>
-      <c r="Y10" s="25"/>
-      <c r="Z10" s="26"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="54"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="44" t="s">
+      <c r="B11" s="45"/>
+      <c r="C11" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="72"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="61"/>
       <c r="N11" s="29"/>
       <c r="O11" s="30"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
-      <c r="X11" s="25"/>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="26"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="53"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="53"/>
+      <c r="W11" s="53"/>
+      <c r="X11" s="53"/>
+      <c r="Y11" s="53"/>
+      <c r="Z11" s="54"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="20" t="s">
+      <c r="A12" s="44"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="74"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="63"/>
       <c r="N12" s="29"/>
       <c r="O12" s="30"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="25"/>
-      <c r="Y12" s="25"/>
-      <c r="Z12" s="26"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="53"/>
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="54"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="74"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="63"/>
       <c r="N13" s="29"/>
       <c r="O13" s="30"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="27"/>
-      <c r="Y13" s="27"/>
-      <c r="Z13" s="28"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="55"/>
+      <c r="T13" s="55"/>
+      <c r="U13" s="55"/>
+      <c r="V13" s="55"/>
+      <c r="W13" s="55"/>
+      <c r="X13" s="55"/>
+      <c r="Y13" s="55"/>
+      <c r="Z13" s="56"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="20" t="s">
+      <c r="A14" s="44"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="74"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="63"/>
       <c r="N14" s="29" t="s">
         <v>32</v>
       </c>
@@ -2256,10 +2256,10 @@
       <c r="P14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q14" s="99"/>
-      <c r="R14" s="99"/>
-      <c r="S14" s="99"/>
-      <c r="T14" s="99"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
       <c r="U14" s="3" t="s">
         <v>7</v>
       </c>
@@ -2274,321 +2274,321 @@
       <c r="Z14" s="5"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="74"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="63"/>
       <c r="N15" s="29"/>
       <c r="O15" s="30"/>
-      <c r="P15" s="20" t="s">
+      <c r="P15" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="Q15" s="105"/>
-      <c r="R15" s="105"/>
-      <c r="S15" s="105"/>
-      <c r="T15" s="105"/>
-      <c r="U15" s="105"/>
-      <c r="V15" s="105"/>
-      <c r="W15" s="105"/>
-      <c r="X15" s="105"/>
-      <c r="Y15" s="105"/>
-      <c r="Z15" s="106"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="37"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="55" t="s">
+      <c r="A16" s="44"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="56"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="60"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="69"/>
       <c r="N16" s="29"/>
       <c r="O16" s="30"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="105"/>
-      <c r="R16" s="105"/>
-      <c r="S16" s="105"/>
-      <c r="T16" s="105"/>
-      <c r="U16" s="105"/>
-      <c r="V16" s="105"/>
-      <c r="W16" s="105"/>
-      <c r="X16" s="105"/>
-      <c r="Y16" s="105"/>
-      <c r="Z16" s="106"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="37"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="62"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="71"/>
       <c r="N17" s="29"/>
       <c r="O17" s="30"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="105"/>
-      <c r="R17" s="105"/>
-      <c r="S17" s="105"/>
-      <c r="T17" s="105"/>
-      <c r="U17" s="105"/>
-      <c r="V17" s="105"/>
-      <c r="W17" s="105"/>
-      <c r="X17" s="105"/>
-      <c r="Y17" s="105"/>
-      <c r="Z17" s="106"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="37"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="63" t="s">
+      <c r="A18" s="44"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64" t="s">
+      <c r="D18" s="73"/>
+      <c r="E18" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="65"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="74"/>
       <c r="N18" s="29"/>
       <c r="O18" s="30"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="105"/>
-      <c r="R18" s="105"/>
-      <c r="S18" s="105"/>
-      <c r="T18" s="105"/>
-      <c r="U18" s="105"/>
-      <c r="V18" s="105"/>
-      <c r="W18" s="105"/>
-      <c r="X18" s="105"/>
-      <c r="Y18" s="105"/>
-      <c r="Z18" s="106"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="36"/>
+      <c r="Y18" s="36"/>
+      <c r="Z18" s="37"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="66" t="s">
+      <c r="A19" s="44"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="67"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
-      <c r="M19" s="69"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="78"/>
       <c r="N19" s="29"/>
       <c r="O19" s="30"/>
-      <c r="P19" s="20" t="s">
+      <c r="P19" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="25"/>
-      <c r="V19" s="25"/>
-      <c r="W19" s="25"/>
-      <c r="X19" s="25"/>
-      <c r="Y19" s="25"/>
-      <c r="Z19" s="26"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="53"/>
+      <c r="T19" s="53"/>
+      <c r="U19" s="53"/>
+      <c r="V19" s="53"/>
+      <c r="W19" s="53"/>
+      <c r="X19" s="53"/>
+      <c r="Y19" s="53"/>
+      <c r="Z19" s="54"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="48" t="s">
+      <c r="A20" s="44"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="49"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="38"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="34"/>
       <c r="N20" s="29"/>
       <c r="O20" s="30"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="25"/>
-      <c r="X20" s="25"/>
-      <c r="Y20" s="25"/>
-      <c r="Z20" s="26"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="53"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="53"/>
+      <c r="W20" s="53"/>
+      <c r="X20" s="53"/>
+      <c r="Y20" s="53"/>
+      <c r="Z20" s="54"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="50" t="s">
+      <c r="A21" s="44"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="51"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="38"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="34"/>
       <c r="N21" s="29"/>
       <c r="O21" s="30"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="25"/>
-      <c r="V21" s="25"/>
-      <c r="W21" s="25"/>
-      <c r="X21" s="25"/>
-      <c r="Y21" s="25"/>
-      <c r="Z21" s="26"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="53"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="53"/>
+      <c r="W21" s="53"/>
+      <c r="X21" s="53"/>
+      <c r="Y21" s="53"/>
+      <c r="Z21" s="54"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="20" t="s">
+      <c r="A22" s="44"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="38"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="34"/>
       <c r="N22" s="29"/>
       <c r="O22" s="30"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="25"/>
-      <c r="X22" s="25"/>
-      <c r="Y22" s="25"/>
-      <c r="Z22" s="26"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="53"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="53"/>
+      <c r="Y22" s="53"/>
+      <c r="Z22" s="54"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="24" t="s">
+      <c r="A23" s="44"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="52"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="54"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="43"/>
       <c r="N23" s="29"/>
       <c r="O23" s="30"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="25"/>
-      <c r="U23" s="25"/>
-      <c r="V23" s="25"/>
-      <c r="W23" s="25"/>
-      <c r="X23" s="25"/>
-      <c r="Y23" s="25"/>
-      <c r="Z23" s="26"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="53"/>
+      <c r="W23" s="53"/>
+      <c r="X23" s="53"/>
+      <c r="Y23" s="53"/>
+      <c r="Z23" s="54"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
-      <c r="K24" s="101"/>
-      <c r="L24" s="101"/>
-      <c r="M24" s="101"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79"/>
       <c r="N24" s="29"/>
       <c r="O24" s="30"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="27"/>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="28"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="55"/>
+      <c r="U24" s="55"/>
+      <c r="V24" s="55"/>
+      <c r="W24" s="55"/>
+      <c r="X24" s="55"/>
+      <c r="Y24" s="55"/>
+      <c r="Z24" s="56"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="102"/>
-      <c r="L25" s="102"/>
-      <c r="M25" s="102"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
+      <c r="M25" s="80"/>
       <c r="N25" s="29" t="s">
         <v>42</v>
       </c>
@@ -2596,10 +2596,10 @@
       <c r="P25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q25" s="99"/>
-      <c r="R25" s="99"/>
-      <c r="S25" s="99"/>
-      <c r="T25" s="99"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
       <c r="U25" s="3" t="s">
         <v>7</v>
       </c>
@@ -2614,78 +2614,78 @@
       <c r="Z25" s="5"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="44" t="s">
+      <c r="B26" s="45"/>
+      <c r="C26" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="45" t="s">
+      <c r="D26" s="23"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="H26" s="45"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="47"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="84"/>
       <c r="N26" s="29"/>
       <c r="O26" s="30"/>
-      <c r="P26" s="20" t="s">
+      <c r="P26" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="Q26" s="105"/>
-      <c r="R26" s="105"/>
-      <c r="S26" s="105"/>
-      <c r="T26" s="105"/>
-      <c r="U26" s="105"/>
-      <c r="V26" s="105"/>
-      <c r="W26" s="105"/>
-      <c r="X26" s="105"/>
-      <c r="Y26" s="105"/>
-      <c r="Z26" s="106"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="36"/>
+      <c r="Z26" s="37"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="20" t="s">
+      <c r="A27" s="44"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="38"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="34"/>
       <c r="N27" s="29"/>
       <c r="O27" s="30"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="105"/>
-      <c r="R27" s="105"/>
-      <c r="S27" s="105"/>
-      <c r="T27" s="105"/>
-      <c r="U27" s="105"/>
-      <c r="V27" s="105"/>
-      <c r="W27" s="105"/>
-      <c r="X27" s="105"/>
-      <c r="Y27" s="105"/>
-      <c r="Z27" s="106"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="37"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="20" t="s">
+      <c r="A28" s="44"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="21"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="113"/>
       <c r="F28" s="113"/>
       <c r="G28" s="113"/>
@@ -2697,23 +2697,23 @@
       <c r="M28" s="114"/>
       <c r="N28" s="29"/>
       <c r="O28" s="30"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="105"/>
-      <c r="R28" s="105"/>
-      <c r="S28" s="105"/>
-      <c r="T28" s="105"/>
-      <c r="U28" s="105"/>
-      <c r="V28" s="105"/>
-      <c r="W28" s="105"/>
-      <c r="X28" s="105"/>
-      <c r="Y28" s="105"/>
-      <c r="Z28" s="106"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="36"/>
+      <c r="Z28" s="37"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="21"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="32"/>
       <c r="E29" s="113"/>
       <c r="F29" s="113"/>
       <c r="G29" s="113"/>
@@ -2725,484 +2725,567 @@
       <c r="M29" s="114"/>
       <c r="N29" s="29"/>
       <c r="O29" s="30"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="105"/>
-      <c r="R29" s="105"/>
-      <c r="S29" s="105"/>
-      <c r="T29" s="105"/>
-      <c r="U29" s="105"/>
-      <c r="V29" s="105"/>
-      <c r="W29" s="105"/>
-      <c r="X29" s="105"/>
-      <c r="Y29" s="105"/>
-      <c r="Z29" s="106"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="36"/>
+      <c r="V29" s="36"/>
+      <c r="W29" s="36"/>
+      <c r="X29" s="36"/>
+      <c r="Y29" s="36"/>
+      <c r="Z29" s="37"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="20" t="s">
+      <c r="A30" s="44"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="103"/>
-      <c r="G30" s="103"/>
-      <c r="H30" s="103"/>
-      <c r="I30" s="103"/>
-      <c r="J30" s="103"/>
-      <c r="K30" s="103"/>
-      <c r="L30" s="103"/>
-      <c r="M30" s="104"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="89"/>
+      <c r="I30" s="89"/>
+      <c r="J30" s="89"/>
+      <c r="K30" s="89"/>
+      <c r="L30" s="89"/>
+      <c r="M30" s="90"/>
       <c r="N30" s="29"/>
       <c r="O30" s="30"/>
-      <c r="P30" s="20" t="s">
+      <c r="P30" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="25"/>
-      <c r="U30" s="25"/>
-      <c r="V30" s="25"/>
-      <c r="W30" s="25"/>
-      <c r="X30" s="25"/>
-      <c r="Y30" s="25"/>
-      <c r="Z30" s="26"/>
+      <c r="Q30" s="53"/>
+      <c r="R30" s="53"/>
+      <c r="S30" s="53"/>
+      <c r="T30" s="53"/>
+      <c r="U30" s="53"/>
+      <c r="V30" s="53"/>
+      <c r="W30" s="53"/>
+      <c r="X30" s="53"/>
+      <c r="Y30" s="53"/>
+      <c r="Z30" s="54"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="103"/>
-      <c r="G31" s="103"/>
-      <c r="H31" s="103"/>
-      <c r="I31" s="103"/>
-      <c r="J31" s="103"/>
-      <c r="K31" s="103"/>
-      <c r="L31" s="103"/>
-      <c r="M31" s="104"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="89"/>
+      <c r="K31" s="89"/>
+      <c r="L31" s="89"/>
+      <c r="M31" s="90"/>
       <c r="N31" s="29"/>
       <c r="O31" s="30"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="25"/>
-      <c r="R31" s="25"/>
-      <c r="S31" s="25"/>
-      <c r="T31" s="25"/>
-      <c r="U31" s="25"/>
-      <c r="V31" s="25"/>
-      <c r="W31" s="25"/>
-      <c r="X31" s="25"/>
-      <c r="Y31" s="25"/>
-      <c r="Z31" s="26"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="53"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="53"/>
+      <c r="W31" s="53"/>
+      <c r="X31" s="53"/>
+      <c r="Y31" s="53"/>
+      <c r="Z31" s="54"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="103"/>
-      <c r="I32" s="103"/>
-      <c r="J32" s="103"/>
-      <c r="K32" s="103"/>
-      <c r="L32" s="103"/>
-      <c r="M32" s="104"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="89"/>
+      <c r="I32" s="89"/>
+      <c r="J32" s="89"/>
+      <c r="K32" s="89"/>
+      <c r="L32" s="89"/>
+      <c r="M32" s="90"/>
       <c r="N32" s="29"/>
       <c r="O32" s="30"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="25"/>
-      <c r="S32" s="25"/>
-      <c r="T32" s="25"/>
-      <c r="U32" s="25"/>
-      <c r="V32" s="25"/>
-      <c r="W32" s="25"/>
-      <c r="X32" s="25"/>
-      <c r="Y32" s="25"/>
-      <c r="Z32" s="26"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="53"/>
+      <c r="R32" s="53"/>
+      <c r="S32" s="53"/>
+      <c r="T32" s="53"/>
+      <c r="U32" s="53"/>
+      <c r="V32" s="53"/>
+      <c r="W32" s="53"/>
+      <c r="X32" s="53"/>
+      <c r="Y32" s="53"/>
+      <c r="Z32" s="54"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="103"/>
-      <c r="I33" s="103"/>
-      <c r="J33" s="103"/>
-      <c r="K33" s="103"/>
-      <c r="L33" s="103"/>
-      <c r="M33" s="104"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="89"/>
+      <c r="I33" s="89"/>
+      <c r="J33" s="89"/>
+      <c r="K33" s="89"/>
+      <c r="L33" s="89"/>
+      <c r="M33" s="90"/>
       <c r="N33" s="29"/>
       <c r="O33" s="30"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="25"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="25"/>
-      <c r="T33" s="25"/>
-      <c r="U33" s="25"/>
-      <c r="V33" s="25"/>
-      <c r="W33" s="25"/>
-      <c r="X33" s="25"/>
-      <c r="Y33" s="25"/>
-      <c r="Z33" s="26"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="53"/>
+      <c r="R33" s="53"/>
+      <c r="S33" s="53"/>
+      <c r="T33" s="53"/>
+      <c r="U33" s="53"/>
+      <c r="V33" s="53"/>
+      <c r="W33" s="53"/>
+      <c r="X33" s="53"/>
+      <c r="Y33" s="53"/>
+      <c r="Z33" s="54"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A34" s="42"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="103"/>
-      <c r="H34" s="103"/>
-      <c r="I34" s="103"/>
-      <c r="J34" s="103"/>
-      <c r="K34" s="103"/>
-      <c r="L34" s="103"/>
-      <c r="M34" s="104"/>
+      <c r="A34" s="44"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="89"/>
+      <c r="I34" s="89"/>
+      <c r="J34" s="89"/>
+      <c r="K34" s="89"/>
+      <c r="L34" s="89"/>
+      <c r="M34" s="90"/>
       <c r="N34" s="29"/>
       <c r="O34" s="30"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="25"/>
-      <c r="R34" s="25"/>
-      <c r="S34" s="25"/>
-      <c r="T34" s="25"/>
-      <c r="U34" s="25"/>
-      <c r="V34" s="25"/>
-      <c r="W34" s="25"/>
-      <c r="X34" s="25"/>
-      <c r="Y34" s="25"/>
-      <c r="Z34" s="26"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="53"/>
+      <c r="R34" s="53"/>
+      <c r="S34" s="53"/>
+      <c r="T34" s="53"/>
+      <c r="U34" s="53"/>
+      <c r="V34" s="53"/>
+      <c r="W34" s="53"/>
+      <c r="X34" s="53"/>
+      <c r="Y34" s="53"/>
+      <c r="Z34" s="54"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" s="42"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="103"/>
-      <c r="H35" s="103"/>
-      <c r="I35" s="103"/>
-      <c r="J35" s="103"/>
-      <c r="K35" s="103"/>
-      <c r="L35" s="103"/>
-      <c r="M35" s="104"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="89"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="89"/>
+      <c r="H35" s="89"/>
+      <c r="I35" s="89"/>
+      <c r="J35" s="89"/>
+      <c r="K35" s="89"/>
+      <c r="L35" s="89"/>
+      <c r="M35" s="90"/>
       <c r="N35" s="29"/>
       <c r="O35" s="30"/>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="27"/>
-      <c r="R35" s="27"/>
-      <c r="S35" s="27"/>
-      <c r="T35" s="27"/>
-      <c r="U35" s="27"/>
-      <c r="V35" s="27"/>
-      <c r="W35" s="27"/>
-      <c r="X35" s="27"/>
-      <c r="Y35" s="27"/>
-      <c r="Z35" s="28"/>
+      <c r="P35" s="52"/>
+      <c r="Q35" s="55"/>
+      <c r="R35" s="55"/>
+      <c r="S35" s="55"/>
+      <c r="T35" s="55"/>
+      <c r="U35" s="55"/>
+      <c r="V35" s="55"/>
+      <c r="W35" s="55"/>
+      <c r="X35" s="55"/>
+      <c r="Y35" s="55"/>
+      <c r="Z35" s="56"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="103"/>
-      <c r="G36" s="103"/>
-      <c r="H36" s="103"/>
-      <c r="I36" s="103"/>
-      <c r="J36" s="103"/>
-      <c r="K36" s="103"/>
-      <c r="L36" s="103"/>
-      <c r="M36" s="104"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="89"/>
+      <c r="F36" s="89"/>
+      <c r="G36" s="89"/>
+      <c r="H36" s="89"/>
+      <c r="I36" s="89"/>
+      <c r="J36" s="89"/>
+      <c r="K36" s="89"/>
+      <c r="L36" s="89"/>
+      <c r="M36" s="90"/>
       <c r="N36" s="29" t="s">
         <v>47</v>
       </c>
       <c r="O36" s="30"/>
-      <c r="P36" s="31" t="s">
+      <c r="P36" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="Q36" s="107"/>
-      <c r="R36" s="107"/>
-      <c r="S36" s="107"/>
-      <c r="T36" s="107"/>
-      <c r="U36" s="107"/>
-      <c r="V36" s="107"/>
-      <c r="W36" s="107"/>
-      <c r="X36" s="107"/>
-      <c r="Y36" s="107"/>
-      <c r="Z36" s="110"/>
+      <c r="Q36" s="93"/>
+      <c r="R36" s="93"/>
+      <c r="S36" s="93"/>
+      <c r="T36" s="93"/>
+      <c r="U36" s="93"/>
+      <c r="V36" s="93"/>
+      <c r="W36" s="93"/>
+      <c r="X36" s="93"/>
+      <c r="Y36" s="93"/>
+      <c r="Z36" s="95"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="18" t="s">
+      <c r="A37" s="44"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="23"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="100"/>
+      <c r="H37" s="100"/>
+      <c r="I37" s="100"/>
+      <c r="J37" s="100"/>
+      <c r="K37" s="100"/>
+      <c r="L37" s="100"/>
+      <c r="M37" s="101"/>
       <c r="N37" s="29"/>
       <c r="O37" s="30"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="108"/>
-      <c r="R37" s="108"/>
-      <c r="S37" s="108"/>
-      <c r="T37" s="108"/>
-      <c r="U37" s="108"/>
-      <c r="V37" s="108"/>
-      <c r="W37" s="108"/>
-      <c r="X37" s="108"/>
-      <c r="Y37" s="108"/>
-      <c r="Z37" s="111"/>
+      <c r="P37" s="92"/>
+      <c r="Q37" s="94"/>
+      <c r="R37" s="94"/>
+      <c r="S37" s="94"/>
+      <c r="T37" s="94"/>
+      <c r="U37" s="94"/>
+      <c r="V37" s="94"/>
+      <c r="W37" s="94"/>
+      <c r="X37" s="94"/>
+      <c r="Y37" s="94"/>
+      <c r="Z37" s="96"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="23"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="97"/>
+      <c r="E38" s="100"/>
+      <c r="F38" s="100"/>
+      <c r="G38" s="100"/>
+      <c r="H38" s="100"/>
+      <c r="I38" s="100"/>
+      <c r="J38" s="100"/>
+      <c r="K38" s="100"/>
+      <c r="L38" s="100"/>
+      <c r="M38" s="101"/>
       <c r="N38" s="29"/>
       <c r="O38" s="30"/>
-      <c r="P38" s="18" t="s">
+      <c r="P38" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="Q38" s="108"/>
-      <c r="R38" s="108"/>
-      <c r="S38" s="108"/>
-      <c r="T38" s="108"/>
-      <c r="U38" s="108"/>
-      <c r="V38" s="108"/>
-      <c r="W38" s="108"/>
-      <c r="X38" s="108"/>
-      <c r="Y38" s="108"/>
-      <c r="Z38" s="111"/>
+      <c r="Q38" s="94"/>
+      <c r="R38" s="94"/>
+      <c r="S38" s="94"/>
+      <c r="T38" s="94"/>
+      <c r="U38" s="94"/>
+      <c r="V38" s="94"/>
+      <c r="W38" s="94"/>
+      <c r="X38" s="94"/>
+      <c r="Y38" s="94"/>
+      <c r="Z38" s="96"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="23"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="97"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="100"/>
+      <c r="G39" s="100"/>
+      <c r="H39" s="100"/>
+      <c r="I39" s="100"/>
+      <c r="J39" s="100"/>
+      <c r="K39" s="100"/>
+      <c r="L39" s="100"/>
+      <c r="M39" s="101"/>
       <c r="N39" s="29"/>
       <c r="O39" s="30"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="108"/>
-      <c r="R39" s="108"/>
-      <c r="S39" s="108"/>
-      <c r="T39" s="108"/>
-      <c r="U39" s="108"/>
-      <c r="V39" s="108"/>
-      <c r="W39" s="108"/>
-      <c r="X39" s="108"/>
-      <c r="Y39" s="108"/>
-      <c r="Z39" s="111"/>
+      <c r="P39" s="92"/>
+      <c r="Q39" s="94"/>
+      <c r="R39" s="94"/>
+      <c r="S39" s="94"/>
+      <c r="T39" s="94"/>
+      <c r="U39" s="94"/>
+      <c r="V39" s="94"/>
+      <c r="W39" s="94"/>
+      <c r="X39" s="94"/>
+      <c r="Y39" s="94"/>
+      <c r="Z39" s="96"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="23"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="97"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="100"/>
+      <c r="G40" s="100"/>
+      <c r="H40" s="100"/>
+      <c r="I40" s="100"/>
+      <c r="J40" s="100"/>
+      <c r="K40" s="100"/>
+      <c r="L40" s="100"/>
+      <c r="M40" s="101"/>
       <c r="N40" s="29"/>
       <c r="O40" s="30"/>
-      <c r="P40" s="18" t="s">
+      <c r="P40" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="Q40" s="108"/>
-      <c r="R40" s="108"/>
-      <c r="S40" s="108"/>
-      <c r="T40" s="108"/>
-      <c r="U40" s="108"/>
-      <c r="V40" s="108"/>
-      <c r="W40" s="108"/>
-      <c r="X40" s="108"/>
-      <c r="Y40" s="108"/>
-      <c r="Z40" s="111"/>
+      <c r="Q40" s="94"/>
+      <c r="R40" s="94"/>
+      <c r="S40" s="94"/>
+      <c r="T40" s="94"/>
+      <c r="U40" s="94"/>
+      <c r="V40" s="94"/>
+      <c r="W40" s="94"/>
+      <c r="X40" s="94"/>
+      <c r="Y40" s="94"/>
+      <c r="Z40" s="96"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="23"/>
+      <c r="A41" s="44"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="92"/>
+      <c r="D41" s="97"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="100"/>
+      <c r="H41" s="100"/>
+      <c r="I41" s="100"/>
+      <c r="J41" s="100"/>
+      <c r="K41" s="100"/>
+      <c r="L41" s="100"/>
+      <c r="M41" s="101"/>
       <c r="N41" s="29"/>
       <c r="O41" s="30"/>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="109"/>
-      <c r="R41" s="109"/>
-      <c r="S41" s="109"/>
-      <c r="T41" s="109"/>
-      <c r="U41" s="109"/>
-      <c r="V41" s="109"/>
-      <c r="W41" s="109"/>
-      <c r="X41" s="109"/>
-      <c r="Y41" s="109"/>
+      <c r="P41" s="110"/>
+      <c r="Q41" s="111"/>
+      <c r="R41" s="111"/>
+      <c r="S41" s="111"/>
+      <c r="T41" s="111"/>
+      <c r="U41" s="111"/>
+      <c r="V41" s="111"/>
+      <c r="W41" s="111"/>
+      <c r="X41" s="111"/>
+      <c r="Y41" s="111"/>
       <c r="Z41" s="112"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="23"/>
-      <c r="N42" s="10" t="s">
+      <c r="A42" s="44"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="97"/>
+      <c r="E42" s="100"/>
+      <c r="F42" s="100"/>
+      <c r="G42" s="100"/>
+      <c r="H42" s="100"/>
+      <c r="I42" s="100"/>
+      <c r="J42" s="100"/>
+      <c r="K42" s="100"/>
+      <c r="L42" s="100"/>
+      <c r="M42" s="101"/>
+      <c r="N42" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="O42" s="11"/>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="14"/>
-      <c r="R42" s="14"/>
-      <c r="S42" s="14"/>
-      <c r="T42" s="14"/>
-      <c r="U42" s="14"/>
-      <c r="V42" s="14"/>
-      <c r="W42" s="14"/>
-      <c r="X42" s="14"/>
-      <c r="Y42" s="14"/>
-      <c r="Z42" s="15"/>
+      <c r="O42" s="45"/>
+      <c r="P42" s="106"/>
+      <c r="Q42" s="106"/>
+      <c r="R42" s="106"/>
+      <c r="S42" s="106"/>
+      <c r="T42" s="106"/>
+      <c r="U42" s="106"/>
+      <c r="V42" s="106"/>
+      <c r="W42" s="106"/>
+      <c r="X42" s="106"/>
+      <c r="Y42" s="106"/>
+      <c r="Z42" s="107"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="14"/>
-      <c r="Q43" s="14"/>
-      <c r="R43" s="14"/>
-      <c r="S43" s="14"/>
-      <c r="T43" s="14"/>
-      <c r="U43" s="14"/>
-      <c r="V43" s="14"/>
-      <c r="W43" s="14"/>
-      <c r="X43" s="14"/>
-      <c r="Y43" s="14"/>
-      <c r="Z43" s="15"/>
+      <c r="A43" s="44"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="92"/>
+      <c r="D43" s="97"/>
+      <c r="E43" s="100"/>
+      <c r="F43" s="100"/>
+      <c r="G43" s="100"/>
+      <c r="H43" s="100"/>
+      <c r="I43" s="100"/>
+      <c r="J43" s="100"/>
+      <c r="K43" s="100"/>
+      <c r="L43" s="100"/>
+      <c r="M43" s="101"/>
+      <c r="N43" s="104"/>
+      <c r="O43" s="45"/>
+      <c r="P43" s="106"/>
+      <c r="Q43" s="106"/>
+      <c r="R43" s="106"/>
+      <c r="S43" s="106"/>
+      <c r="T43" s="106"/>
+      <c r="U43" s="106"/>
+      <c r="V43" s="106"/>
+      <c r="W43" s="106"/>
+      <c r="X43" s="106"/>
+      <c r="Y43" s="106"/>
+      <c r="Z43" s="107"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="23"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="14"/>
-      <c r="R44" s="14"/>
-      <c r="S44" s="14"/>
-      <c r="T44" s="14"/>
-      <c r="U44" s="14"/>
-      <c r="V44" s="14"/>
-      <c r="W44" s="14"/>
-      <c r="X44" s="14"/>
-      <c r="Y44" s="14"/>
-      <c r="Z44" s="15"/>
+      <c r="A44" s="44"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="97"/>
+      <c r="E44" s="100"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="100"/>
+      <c r="H44" s="100"/>
+      <c r="I44" s="100"/>
+      <c r="J44" s="100"/>
+      <c r="K44" s="100"/>
+      <c r="L44" s="100"/>
+      <c r="M44" s="101"/>
+      <c r="N44" s="104"/>
+      <c r="O44" s="45"/>
+      <c r="P44" s="106"/>
+      <c r="Q44" s="106"/>
+      <c r="R44" s="106"/>
+      <c r="S44" s="106"/>
+      <c r="T44" s="106"/>
+      <c r="U44" s="106"/>
+      <c r="V44" s="106"/>
+      <c r="W44" s="106"/>
+      <c r="X44" s="106"/>
+      <c r="Y44" s="106"/>
+      <c r="Z44" s="107"/>
     </row>
     <row r="45" spans="1:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="43"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="35"/>
-      <c r="M45" s="36"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="16"/>
-      <c r="R45" s="16"/>
-      <c r="S45" s="16"/>
-      <c r="T45" s="16"/>
-      <c r="U45" s="16"/>
-      <c r="V45" s="16"/>
-      <c r="W45" s="16"/>
-      <c r="X45" s="16"/>
-      <c r="Y45" s="16"/>
-      <c r="Z45" s="17"/>
+      <c r="A45" s="81"/>
+      <c r="B45" s="82"/>
+      <c r="C45" s="98"/>
+      <c r="D45" s="99"/>
+      <c r="E45" s="102"/>
+      <c r="F45" s="102"/>
+      <c r="G45" s="102"/>
+      <c r="H45" s="102"/>
+      <c r="I45" s="102"/>
+      <c r="J45" s="102"/>
+      <c r="K45" s="102"/>
+      <c r="L45" s="102"/>
+      <c r="M45" s="103"/>
+      <c r="N45" s="105"/>
+      <c r="O45" s="82"/>
+      <c r="P45" s="108"/>
+      <c r="Q45" s="108"/>
+      <c r="R45" s="108"/>
+      <c r="S45" s="108"/>
+      <c r="T45" s="108"/>
+      <c r="U45" s="108"/>
+      <c r="V45" s="108"/>
+      <c r="W45" s="108"/>
+      <c r="X45" s="108"/>
+      <c r="Y45" s="108"/>
+      <c r="Z45" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="99">
+    <mergeCell ref="Q40:S41"/>
+    <mergeCell ref="T40:Z41"/>
+    <mergeCell ref="C30:D36"/>
+    <mergeCell ref="E30:M36"/>
+    <mergeCell ref="P30:P35"/>
+    <mergeCell ref="Q30:Z35"/>
+    <mergeCell ref="N36:O41"/>
+    <mergeCell ref="P36:P37"/>
+    <mergeCell ref="Q36:S37"/>
+    <mergeCell ref="T36:Z37"/>
+    <mergeCell ref="C37:D45"/>
+    <mergeCell ref="E37:M45"/>
+    <mergeCell ref="N42:O45"/>
+    <mergeCell ref="P42:Z45"/>
+    <mergeCell ref="P38:P39"/>
+    <mergeCell ref="Q38:S39"/>
+    <mergeCell ref="T38:Z39"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="Q26:Z29"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:M27"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:M28"/>
+    <mergeCell ref="E29:M29"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:M25"/>
+    <mergeCell ref="N25:O35"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="A26:B45"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:M26"/>
+    <mergeCell ref="P26:P29"/>
+    <mergeCell ref="P19:P24"/>
+    <mergeCell ref="Q19:Z24"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:M20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:M21"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="P15:P18"/>
+    <mergeCell ref="Q15:Z18"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:M17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:M18"/>
+    <mergeCell ref="N14:O24"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:M19"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:M10"/>
+    <mergeCell ref="A11:B23"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:M11"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:M13"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:M15"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:M22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:M23"/>
+    <mergeCell ref="K8:M9"/>
+    <mergeCell ref="P8:P13"/>
+    <mergeCell ref="Q8:Z13"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="A1:P2"/>
     <mergeCell ref="Q1:Z2"/>
     <mergeCell ref="A3:B7"/>
@@ -3219,89 +3302,6 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:J5"/>
     <mergeCell ref="L5:M5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:M9"/>
-    <mergeCell ref="P8:P13"/>
-    <mergeCell ref="Q8:Z13"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:M10"/>
-    <mergeCell ref="A11:B23"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:M11"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:M13"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:M15"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="P15:P18"/>
-    <mergeCell ref="Q15:Z18"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:M17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:M18"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:M22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:M23"/>
-    <mergeCell ref="N14:O24"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:M19"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:M25"/>
-    <mergeCell ref="N25:O35"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="A26:B45"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:M26"/>
-    <mergeCell ref="P26:P29"/>
-    <mergeCell ref="P19:P24"/>
-    <mergeCell ref="Q19:Z24"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:M20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:M21"/>
-    <mergeCell ref="Q26:Z29"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:M27"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:M28"/>
-    <mergeCell ref="E29:M29"/>
-    <mergeCell ref="C30:D36"/>
-    <mergeCell ref="E30:M36"/>
-    <mergeCell ref="P30:P35"/>
-    <mergeCell ref="Q30:Z35"/>
-    <mergeCell ref="N36:O41"/>
-    <mergeCell ref="P36:P37"/>
-    <mergeCell ref="Q36:S37"/>
-    <mergeCell ref="T36:Z37"/>
-    <mergeCell ref="C37:D45"/>
-    <mergeCell ref="E37:M45"/>
-    <mergeCell ref="N42:O45"/>
-    <mergeCell ref="P42:Z45"/>
-    <mergeCell ref="P38:P39"/>
-    <mergeCell ref="Q38:S39"/>
-    <mergeCell ref="T38:Z39"/>
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="Q40:S41"/>
-    <mergeCell ref="T40:Z41"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
